--- a/doc/FPGA_Runs/fpgarun05_finalrun01/runrslt/Batch25/anyimplementaion_layerbased_host_device.xlsx
+++ b/doc/FPGA_Runs/fpgarun05_finalrun01/runrslt/Batch25/anyimplementaion_layerbased_host_device.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="158">
   <si>
     <t>Shape1</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>AccumulatedDeviceOnly(us)</t>
+  </si>
+  <si>
+    <t>AccumulatedDataMoverOnly(us)</t>
   </si>
   <si>
     <t>Total(us)</t>
@@ -857,13 +860,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,42 +885,48 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>39724.021</v>
       </c>
       <c r="F2">
-        <v>3139.979</v>
+        <v>2525.399</v>
       </c>
       <c r="G2">
+        <v>614.58</v>
+      </c>
+      <c r="H2">
         <v>42864</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>685.1280000000002</v>
@@ -926,21 +935,24 @@
         <v>2509.872</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>3195</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>3545.602999999999</v>
@@ -949,21 +961,24 @@
         <v>11608.397</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>15154</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>3470.187</v>
@@ -972,21 +987,24 @@
         <v>11561.813</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>15032</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>3452.673000000001</v>
@@ -995,6 +1013,9 @@
         <v>11601.327</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>15054</v>
       </c>
     </row>
@@ -1005,13 +1026,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1030,188 +1051,215 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2">
         <v>252184.629</v>
       </c>
       <c r="F2">
-        <v>396865.371</v>
+        <v>388543.457</v>
       </c>
       <c r="G2">
+        <v>8321.914000000001</v>
+      </c>
+      <c r="H2">
         <v>649050</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E3">
         <v>306659.203</v>
       </c>
       <c r="F3">
-        <v>491900.797</v>
+        <v>458929.84</v>
       </c>
       <c r="G3">
+        <v>32970.957</v>
+      </c>
+      <c r="H3">
         <v>798560</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E4">
-        <v>97843.891</v>
+        <v>97843.89100000002</v>
       </c>
       <c r="F4">
-        <v>298197.109</v>
+        <v>294767.8</v>
       </c>
       <c r="G4">
+        <v>3429.309</v>
+      </c>
+      <c r="H4">
         <v>396041</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E5">
         <v>257135.729</v>
       </c>
       <c r="F5">
-        <v>396795.271</v>
+        <v>388445.207</v>
       </c>
       <c r="G5">
+        <v>8350.064</v>
+      </c>
+      <c r="H5">
         <v>653931</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E6">
         <v>571856.0480000002</v>
       </c>
       <c r="F6">
-        <v>942855.9519999998</v>
+        <v>877193.2519999999</v>
       </c>
       <c r="G6">
+        <v>65662.7</v>
+      </c>
+      <c r="H6">
         <v>1514712</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E7">
         <v>573390.047</v>
       </c>
       <c r="F7">
-        <v>942818.953</v>
+        <v>877146.289</v>
       </c>
       <c r="G7">
+        <v>65672.664</v>
+      </c>
+      <c r="H7">
         <v>1516209</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E8">
         <v>491309.1300000001</v>
       </c>
       <c r="F8">
-        <v>802378.8699999999</v>
+        <v>736706.4399999999</v>
       </c>
       <c r="G8">
+        <v>65672.42999999999</v>
+      </c>
+      <c r="H8">
         <v>1293688</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E9">
-        <v>120058.7930000001</v>
+        <v>120058.793</v>
       </c>
       <c r="F9">
-        <v>636053.2069999999</v>
+        <v>627728.7</v>
       </c>
       <c r="G9">
+        <v>8324.507</v>
+      </c>
+      <c r="H9">
         <v>756112</v>
       </c>
     </row>
@@ -1222,13 +1270,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1247,88 +1295,100 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E2">
         <v>190670.3689999999</v>
       </c>
       <c r="F2">
-        <v>299538.6310000001</v>
+        <v>266639.8210000001</v>
       </c>
       <c r="G2">
+        <v>32898.81</v>
+      </c>
+      <c r="H2">
         <v>490209</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E3">
         <v>388289.354</v>
       </c>
       <c r="F3">
-        <v>351681.646</v>
+        <v>285987.06</v>
       </c>
       <c r="G3">
+        <v>65694.586</v>
+      </c>
+      <c r="H3">
         <v>739971</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E4">
         <v>174284.473</v>
       </c>
       <c r="F4">
-        <v>52822.527</v>
+        <v>26466.431</v>
       </c>
       <c r="G4">
+        <v>26356.096</v>
+      </c>
+      <c r="H4">
         <v>227107</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E5">
         <v>1214.987</v>
@@ -1337,21 +1397,24 @@
         <v>241.013</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>1456</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E6">
         <v>1268.036</v>
@@ -1360,136 +1423,154 @@
         <v>236.964</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>1505</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7">
         <v>189365.625</v>
       </c>
       <c r="F7">
-        <v>299525.375</v>
+        <v>266624.52</v>
       </c>
       <c r="G7">
+        <v>32900.855</v>
+      </c>
+      <c r="H7">
         <v>488891</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8">
         <v>182547.105</v>
       </c>
       <c r="F8">
-        <v>299538.895</v>
+        <v>266621.465</v>
       </c>
       <c r="G8">
+        <v>32917.43</v>
+      </c>
+      <c r="H8">
         <v>482086</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E9">
         <v>182620.07</v>
       </c>
       <c r="F9">
-        <v>299577.93</v>
+        <v>266628.254</v>
       </c>
       <c r="G9">
+        <v>32949.676</v>
+      </c>
+      <c r="H9">
         <v>482198</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E10">
         <v>369179.894</v>
       </c>
       <c r="F10">
-        <v>351474.106</v>
+        <v>285807.896</v>
       </c>
       <c r="G10">
+        <v>65666.21000000001</v>
+      </c>
+      <c r="H10">
         <v>720654</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E11">
         <v>175608.731</v>
       </c>
       <c r="F11">
-        <v>52804.269</v>
+        <v>26454.253</v>
       </c>
       <c r="G11">
+        <v>26350.016</v>
+      </c>
+      <c r="H11">
         <v>228413</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E12">
         <v>1239.344</v>
@@ -1498,21 +1579,24 @@
         <v>254.656</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>1494</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13">
         <v>1401.76</v>
@@ -1521,6 +1605,9 @@
         <v>230.24</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>1632</v>
       </c>
     </row>
@@ -1531,13 +1618,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1556,88 +1643,100 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E2">
-        <v>375164.2039999999</v>
+        <v>375164.204</v>
       </c>
       <c r="F2">
-        <v>599391.7960000001</v>
+        <v>533468.076</v>
       </c>
       <c r="G2">
+        <v>65923.72</v>
+      </c>
+      <c r="H2">
         <v>974556</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E3">
         <v>743964.1629999999</v>
       </c>
       <c r="F3">
-        <v>705431.8370000001</v>
+        <v>574059.307</v>
       </c>
       <c r="G3">
+        <v>131372.53</v>
+      </c>
+      <c r="H3">
         <v>1449396</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E4">
         <v>296592.455</v>
       </c>
       <c r="F4">
-        <v>105817.545</v>
+        <v>53133.244</v>
       </c>
       <c r="G4">
+        <v>52684.301</v>
+      </c>
+      <c r="H4">
         <v>402410</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E5">
         <v>3445.805</v>
@@ -1646,21 +1745,24 @@
         <v>679.1950000000001</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>4125</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E6">
         <v>3425.291</v>
@@ -1669,136 +1771,154 @@
         <v>705.7089999999999</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>4131</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E7">
-        <v>373394.772</v>
+        <v>373394.7720000001</v>
       </c>
       <c r="F7">
-        <v>599277.228</v>
+        <v>533466.5279999999</v>
       </c>
       <c r="G7">
+        <v>65810.7</v>
+      </c>
+      <c r="H7">
         <v>972672</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8">
         <v>372675.132</v>
       </c>
       <c r="F8">
-        <v>599304.868</v>
+        <v>533452.344</v>
       </c>
       <c r="G8">
+        <v>65852.524</v>
+      </c>
+      <c r="H8">
         <v>971980</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E9">
-        <v>370677.295</v>
+        <v>370677.2950000001</v>
       </c>
       <c r="F9">
-        <v>599294.705</v>
+        <v>533493.4389999999</v>
       </c>
       <c r="G9">
+        <v>65801.266</v>
+      </c>
+      <c r="H9">
         <v>969972</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E10">
-        <v>734775.0750000001</v>
+        <v>734775.075</v>
       </c>
       <c r="F10">
-        <v>704466.9249999999</v>
+        <v>572916.985</v>
       </c>
       <c r="G10">
+        <v>131549.94</v>
+      </c>
+      <c r="H10">
         <v>1439242</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E11">
-        <v>295586.707</v>
+        <v>295586.7070000001</v>
       </c>
       <c r="F11">
-        <v>105870.293</v>
+        <v>53132.828</v>
       </c>
       <c r="G11">
+        <v>52737.465</v>
+      </c>
+      <c r="H11">
         <v>401457</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E12">
         <v>3462.529</v>
@@ -1807,21 +1927,24 @@
         <v>663.471</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>4126</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E13">
         <v>3435.576</v>
@@ -1830,6 +1953,9 @@
         <v>647.4240000000001</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>4083</v>
       </c>
     </row>
@@ -1840,13 +1966,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1865,19 +1991,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E2">
         <v>716.047</v>
@@ -1886,21 +2015,24 @@
         <v>97.953</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>814</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E3">
         <v>13767.714</v>
@@ -1909,21 +2041,24 @@
         <v>113.286</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>13881</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E4">
         <v>53879.491</v>
@@ -1932,21 +2067,24 @@
         <v>109.509</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>53989</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E5">
         <v>21905.039</v>
@@ -1955,21 +2093,24 @@
         <v>114.961</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>22020</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E6">
         <v>512.879</v>
@@ -1978,21 +2119,24 @@
         <v>101.121</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>614</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E7">
         <v>634.159</v>
@@ -2001,21 +2145,24 @@
         <v>104.841</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>739</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E8">
         <v>1154.097</v>
@@ -2024,21 +2171,24 @@
         <v>104.903</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>1259</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E9">
         <v>1144.292</v>
@@ -2047,21 +2197,24 @@
         <v>106.708</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>1251</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E10">
         <v>1113.884</v>
@@ -2070,21 +2223,24 @@
         <v>99.116</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>1213</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E11">
         <v>45862.662</v>
@@ -2093,21 +2249,24 @@
         <v>103.338</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>45966</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E12">
         <v>20589.028</v>
@@ -2116,21 +2275,24 @@
         <v>100.972</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>20690</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E13">
         <v>509.909</v>
@@ -2139,6 +2301,9 @@
         <v>98.09099999999999</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>608</v>
       </c>
     </row>
@@ -2149,13 +2314,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2174,19 +2339,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E2">
         <v>61912.426</v>
@@ -2195,21 +2363,24 @@
         <v>17585.574</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>79498</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E3">
         <v>129186.5</v>
@@ -2218,21 +2389,24 @@
         <v>34946.5</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>164133</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E4">
         <v>48662.927</v>
@@ -2241,21 +2415,24 @@
         <v>14113.073</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>62776</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E5">
         <v>566.425</v>
@@ -2264,21 +2441,24 @@
         <v>110.575</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>677</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E6">
         <v>445.156</v>
@@ -2287,21 +2467,24 @@
         <v>110.844</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>556</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E7">
         <v>59805.229</v>
@@ -2310,21 +2493,24 @@
         <v>17576.771</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>77382</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E8">
         <v>62226.9</v>
@@ -2333,21 +2519,24 @@
         <v>17533.1</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>79760</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E9">
         <v>61567.867</v>
@@ -2356,21 +2545,24 @@
         <v>17536.133</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>79104</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E10">
         <v>122978.84</v>
@@ -2379,21 +2571,24 @@
         <v>35002.16</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>157981</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E11">
         <v>48999.388</v>
@@ -2402,21 +2597,24 @@
         <v>14060.612</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>63060</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E12">
         <v>483.574</v>
@@ -2425,21 +2623,24 @@
         <v>105.426</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>589</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E13">
         <v>434.205</v>
@@ -2448,6 +2649,9 @@
         <v>105.795</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>540</v>
       </c>
     </row>
@@ -2458,13 +2662,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2483,19 +2687,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E2">
         <v>6689.219999999972</v>
@@ -2504,21 +2711,24 @@
         <v>319650.78</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>326340</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E3">
         <v>798.8629999999976</v>
@@ -2527,21 +2737,24 @@
         <v>50075.137</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>50874</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E4">
         <v>3756.219999999972</v>
@@ -2550,21 +2763,24 @@
         <v>270302.78</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>274059</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E5">
         <v>3666.375</v>
@@ -2573,21 +2789,24 @@
         <v>270181.625</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>273848</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E6">
         <v>3682.700000000012</v>
@@ -2596,21 +2815,24 @@
         <v>270424.3</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>274107</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E7">
         <v>6743.280000000028</v>
@@ -2619,21 +2841,24 @@
         <v>319656.72</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>326400</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E8">
         <v>636.336000000003</v>
@@ -2642,6 +2867,9 @@
         <v>50056.664</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>50693</v>
       </c>
     </row>
@@ -2660,10 +2888,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2672,7 +2900,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2680,16 +2908,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>50877.61199999999</v>
+        <v>51492.192</v>
       </c>
       <c r="E2">
-        <v>40421.388</v>
+        <v>39806.808</v>
       </c>
       <c r="F2">
         <v>91299</v>
@@ -2700,16 +2928,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>320354.0989999999</v>
+        <v>321606.1079999999</v>
       </c>
       <c r="E3">
-        <v>2156747.901</v>
+        <v>2155495.892</v>
       </c>
       <c r="F3">
         <v>2477102</v>
@@ -2720,16 +2948,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C4">
         <v>159</v>
       </c>
       <c r="D4">
-        <v>5363641.349</v>
+        <v>5679589.928000003</v>
       </c>
       <c r="E4">
-        <v>6029175.650999997</v>
+        <v>5713227.071999997</v>
       </c>
       <c r="F4">
         <v>11392817</v>
@@ -2740,16 +2968,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>69467.27099999999</v>
+        <v>69990.932</v>
       </c>
       <c r="E5">
-        <v>4233.729</v>
+        <v>3710.068</v>
       </c>
       <c r="F5">
         <v>73701</v>
@@ -2760,7 +2988,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2780,16 +3008,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7">
-        <v>774269.625</v>
+        <v>774851.039</v>
       </c>
       <c r="E7">
-        <v>682965.375</v>
+        <v>682383.961</v>
       </c>
       <c r="F7">
         <v>1457235</v>
@@ -2800,16 +3028,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>764958.317</v>
+        <v>896828.2000000001</v>
       </c>
       <c r="E8">
-        <v>3417761.683</v>
+        <v>3285891.8</v>
       </c>
       <c r="F8">
         <v>4182720</v>
@@ -2820,16 +3048,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>310598.5835</v>
+        <v>315749.7825</v>
       </c>
       <c r="E9">
-        <v>485709.4165</v>
+        <v>480558.2175</v>
       </c>
       <c r="F9">
         <v>796308</v>
@@ -2840,7 +3068,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -2860,16 +3088,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11">
-        <v>2670437.47</v>
+        <v>2928842.015000001</v>
       </c>
       <c r="E11">
-        <v>4907865.529999999</v>
+        <v>4649460.984999999</v>
       </c>
       <c r="F11">
         <v>7578303</v>
@@ -2880,16 +3108,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>1857689.748</v>
+        <v>2173423.427</v>
       </c>
       <c r="E12">
-        <v>2007926.252</v>
+        <v>1692192.573</v>
       </c>
       <c r="F12">
         <v>3865616</v>
@@ -2900,16 +3128,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>3576599.004</v>
+        <v>4208331.450000001</v>
       </c>
       <c r="E13">
-        <v>4021550.996</v>
+        <v>3389818.55</v>
       </c>
       <c r="F13">
         <v>7598150</v>
@@ -2920,7 +3148,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -2940,7 +3168,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -2960,7 +3188,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -2982,13 +3210,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3007,42 +3235,48 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>60473.041</v>
       </c>
       <c r="F2">
-        <v>54791.959</v>
+        <v>54267.195</v>
       </c>
       <c r="G2">
+        <v>524.764</v>
+      </c>
+      <c r="H2">
         <v>115265</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>10574.924</v>
@@ -3051,21 +3285,24 @@
         <v>9733.075999999999</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>20308</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>574.5330000000004</v>
@@ -3074,67 +3311,76 @@
         <v>4411.467</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>4986</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2349.374</v>
       </c>
       <c r="F5">
-        <v>2042.626</v>
+        <v>1935.49</v>
       </c>
       <c r="G5">
+        <v>107.136</v>
+      </c>
+      <c r="H5">
         <v>4392</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>7145.835999999999</v>
       </c>
       <c r="F6">
-        <v>29271.164</v>
+        <v>28651.055</v>
       </c>
       <c r="G6">
+        <v>620.109</v>
+      </c>
+      <c r="H6">
         <v>36417</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>50452.68</v>
@@ -3143,21 +3389,24 @@
         <v>54320.32</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>104773</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>59586.75</v>
@@ -3166,21 +3415,24 @@
         <v>661991.25</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>721578</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>59273.43999999994</v>
@@ -3189,21 +3441,24 @@
         <v>662001.5600000001</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>721275</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>58933.40000000002</v>
@@ -3212,21 +3467,24 @@
         <v>661977.6</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>720911</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>10048.072</v>
@@ -3235,21 +3493,24 @@
         <v>9820.928</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>19869</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>523.4539999999997</v>
@@ -3258,21 +3519,24 @@
         <v>4408.546</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>4932</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>418.595</v>
@@ -3281,6 +3545,9 @@
         <v>1977.405</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>2396</v>
       </c>
     </row>
@@ -3291,13 +3558,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3316,19 +3583,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2">
         <v>56581.016</v>
@@ -3337,21 +3607,24 @@
         <v>41770.984</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>98352</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>49707.098</v>
@@ -3360,21 +3633,24 @@
         <v>44582.902</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>94290</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4">
         <v>49855.152</v>
@@ -3383,21 +3659,24 @@
         <v>44542.848</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>94398</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>43134.586</v>
@@ -3406,21 +3685,24 @@
         <v>38492.414</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>81627</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>516.126</v>
@@ -3429,21 +3711,24 @@
         <v>114.874</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>631</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>659.033</v>
@@ -3452,21 +3737,24 @@
         <v>111.967</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>771</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>565.053</v>
@@ -3475,21 +3763,24 @@
         <v>109.947</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>675</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>662.119</v>
@@ -3498,21 +3789,24 @@
         <v>110.881</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>773</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>575.03</v>
@@ -3521,21 +3815,24 @@
         <v>111.97</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>687</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11">
         <v>590.698</v>
@@ -3544,44 +3841,50 @@
         <v>109.302</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>243322.34</v>
       </c>
       <c r="F12">
-        <v>162528.66</v>
+        <v>129630.84</v>
       </c>
       <c r="G12">
+        <v>32897.82</v>
+      </c>
+      <c r="H12">
         <v>405851</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13">
         <v>741.095</v>
@@ -3590,21 +3893,24 @@
         <v>119.905</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>861</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>62473.17</v>
@@ -3613,21 +3919,24 @@
         <v>129092.83</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>191566</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15">
         <v>61847.49000000001</v>
@@ -3636,21 +3945,24 @@
         <v>129049.51</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>190897</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <v>68566.8</v>
@@ -3659,21 +3971,24 @@
         <v>129097.2</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>197664</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <v>558.191</v>
@@ -3682,21 +3997,24 @@
         <v>141.809</v>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18">
         <v>677.152</v>
@@ -3705,21 +4023,24 @@
         <v>132.848</v>
       </c>
       <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>810</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>591.4400000000001</v>
@@ -3728,21 +4049,24 @@
         <v>106.56</v>
       </c>
       <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>698</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>677.393</v>
@@ -3751,21 +4075,24 @@
         <v>104.607</v>
       </c>
       <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>782</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E21">
         <v>504.921</v>
@@ -3774,21 +4101,24 @@
         <v>106.079</v>
       </c>
       <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>611</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22">
         <v>516.201</v>
@@ -3797,44 +4127,50 @@
         <v>108.799</v>
       </c>
       <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>625</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
         <v>33</v>
       </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E23">
         <v>484296.914</v>
       </c>
       <c r="F23">
-        <v>332216.086</v>
+        <v>266544.5</v>
       </c>
       <c r="G23">
+        <v>65671.586</v>
+      </c>
+      <c r="H23">
         <v>816513</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24">
         <v>1003.727</v>
@@ -3843,21 +4179,24 @@
         <v>131.273</v>
       </c>
       <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>1135</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>122636.53</v>
@@ -3866,21 +4205,24 @@
         <v>266588.47</v>
       </c>
       <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>389225</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E26">
         <v>129370.94</v>
@@ -3889,21 +4231,24 @@
         <v>266560.06</v>
       </c>
       <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>395931</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
         <v>33</v>
       </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E27">
         <v>122611.625</v>
@@ -3912,21 +4257,24 @@
         <v>266587.375</v>
       </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>389199</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28">
         <v>574.36</v>
@@ -3935,21 +4283,24 @@
         <v>113.64</v>
       </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>688</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E29">
         <v>715.52</v>
@@ -3958,21 +4309,24 @@
         <v>108.48</v>
       </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>824</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E30">
         <v>528.697</v>
@@ -3981,21 +4335,24 @@
         <v>115.303</v>
       </c>
       <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>644</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E31">
         <v>697.513</v>
@@ -4004,21 +4361,24 @@
         <v>110.487</v>
       </c>
       <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>808</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E32">
         <v>530.782</v>
@@ -4027,21 +4387,24 @@
         <v>100.218</v>
       </c>
       <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>631</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>541.098</v>
@@ -4050,44 +4413,50 @@
         <v>100.902</v>
       </c>
       <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>642</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E34">
         <v>196653.63</v>
       </c>
       <c r="F34">
-        <v>70896.37</v>
+        <v>44535.17</v>
       </c>
       <c r="G34">
+        <v>26361.2</v>
+      </c>
+      <c r="H34">
         <v>267550</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E35">
         <v>733.309</v>
@@ -4096,21 +4465,24 @@
         <v>122.691</v>
       </c>
       <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>856</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
-        <v>34</v>
-      </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E36">
         <v>49273.316</v>
@@ -4119,21 +4491,24 @@
         <v>44578.684</v>
       </c>
       <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>93852</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
         <v>35</v>
       </c>
-      <c r="C37" t="s">
-        <v>34</v>
-      </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E37">
         <v>55502.465</v>
@@ -4142,21 +4517,24 @@
         <v>44541.535</v>
       </c>
       <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>100044</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
         <v>35</v>
       </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E38">
         <v>49178.426</v>
@@ -4165,21 +4543,24 @@
         <v>44545.574</v>
       </c>
       <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>93724</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E39">
         <v>9669.298000000001</v>
@@ -4188,21 +4569,24 @@
         <v>159.702</v>
       </c>
       <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>9829</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E40">
         <v>562.913</v>
@@ -4211,21 +4595,24 @@
         <v>111.087</v>
       </c>
       <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>674</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E41">
         <v>656.446</v>
@@ -4234,21 +4621,24 @@
         <v>108.554</v>
       </c>
       <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>765</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E42">
         <v>497.858</v>
@@ -4257,21 +4647,24 @@
         <v>111.142</v>
       </c>
       <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>609</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E43">
         <v>644.825</v>
@@ -4280,21 +4673,24 @@
         <v>124.175</v>
       </c>
       <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>769</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E44">
         <v>543.075</v>
@@ -4303,21 +4699,24 @@
         <v>116.925</v>
       </c>
       <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>660</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E45">
         <v>486.001</v>
@@ -4326,21 +4725,24 @@
         <v>122.999</v>
       </c>
       <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>609</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E46">
         <v>573.6279999999999</v>
@@ -4349,21 +4751,24 @@
         <v>143.372</v>
       </c>
       <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>717</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E47">
         <v>657.3679999999999</v>
@@ -4372,21 +4777,24 @@
         <v>103.632</v>
       </c>
       <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <v>761</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E48">
         <v>514.235</v>
@@ -4395,21 +4803,24 @@
         <v>134.765</v>
       </c>
       <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>649</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E49">
         <v>570.419</v>
@@ -4418,21 +4829,24 @@
         <v>133.581</v>
       </c>
       <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>704</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E50">
         <v>539.127</v>
@@ -4441,21 +4855,24 @@
         <v>138.873</v>
       </c>
       <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
         <v>678</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E51">
         <v>541.822</v>
@@ -4464,21 +4881,24 @@
         <v>131.178</v>
       </c>
       <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>673</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E52">
         <v>566.5840000000001</v>
@@ -4487,21 +4907,24 @@
         <v>108.416</v>
       </c>
       <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>675</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E53">
         <v>650.072</v>
@@ -4510,21 +4933,24 @@
         <v>104.928</v>
       </c>
       <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
         <v>755</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E54">
         <v>527.215</v>
@@ -4533,21 +4959,24 @@
         <v>104.785</v>
       </c>
       <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
         <v>632</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E55">
         <v>650.539</v>
@@ -4556,21 +4985,24 @@
         <v>106.461</v>
       </c>
       <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
         <v>757</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E56">
         <v>489.574</v>
@@ -4579,21 +5011,24 @@
         <v>135.426</v>
       </c>
       <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>625</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E57">
         <v>528.003</v>
@@ -4602,21 +5037,24 @@
         <v>112.997</v>
       </c>
       <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
         <v>641</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E58">
         <v>509.518</v>
@@ -4625,21 +5063,24 @@
         <v>127.482</v>
       </c>
       <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
         <v>637</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E59">
         <v>677.643</v>
@@ -4648,21 +5089,24 @@
         <v>103.357</v>
       </c>
       <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
         <v>781</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D60" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E60">
         <v>538.349</v>
@@ -4671,21 +5115,24 @@
         <v>127.651</v>
       </c>
       <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
         <v>666</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E61">
         <v>581.079</v>
@@ -4694,21 +5141,24 @@
         <v>132.921</v>
       </c>
       <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
         <v>714</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E62">
         <v>548.5840000000001</v>
@@ -4717,44 +5167,50 @@
         <v>133.416</v>
       </c>
       <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
         <v>682</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E63">
         <v>4055.42</v>
       </c>
       <c r="F63">
-        <v>298.58</v>
+        <v>104.155</v>
       </c>
       <c r="G63">
+        <v>194.425</v>
+      </c>
+      <c r="H63">
         <v>4354</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" t="s">
         <v>39</v>
       </c>
-      <c r="C64" t="s">
-        <v>38</v>
-      </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E64">
         <v>555.597</v>
@@ -4763,21 +5219,24 @@
         <v>117.403</v>
       </c>
       <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
         <v>673</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E65">
         <v>49914.52</v>
@@ -4786,21 +5245,24 @@
         <v>41803.48</v>
       </c>
       <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
         <v>91718</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E66">
         <v>49763.695</v>
@@ -4809,21 +5271,24 @@
         <v>44540.305</v>
       </c>
       <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
         <v>94304</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E67">
         <v>49447.133</v>
@@ -4832,21 +5297,24 @@
         <v>44528.867</v>
       </c>
       <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
         <v>93976</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E68">
         <v>33490.71</v>
@@ -4855,21 +5323,24 @@
         <v>38438.29</v>
       </c>
       <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
         <v>71929</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E69">
         <v>574.224</v>
@@ -4878,21 +5349,24 @@
         <v>107.776</v>
       </c>
       <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
         <v>682</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E70">
         <v>677.597</v>
@@ -4901,21 +5375,24 @@
         <v>108.403</v>
       </c>
       <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
         <v>786</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E71">
         <v>505.017</v>
@@ -4924,21 +5401,24 @@
         <v>106.983</v>
       </c>
       <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
         <v>612</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E72">
         <v>642.0360000000001</v>
@@ -4947,21 +5427,24 @@
         <v>105.964</v>
       </c>
       <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
         <v>748</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E73">
         <v>532.654</v>
@@ -4970,21 +5453,24 @@
         <v>105.346</v>
       </c>
       <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
         <v>638</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E74">
         <v>530.723</v>
@@ -4993,44 +5479,50 @@
         <v>112.277</v>
       </c>
       <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
         <v>643</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" t="s">
         <v>31</v>
       </c>
-      <c r="C75" t="s">
-        <v>30</v>
-      </c>
       <c r="D75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E75">
         <v>241756.55</v>
       </c>
       <c r="F75">
-        <v>162631.45</v>
+        <v>129712.57</v>
       </c>
       <c r="G75">
+        <v>32918.88</v>
+      </c>
+      <c r="H75">
         <v>404388</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E76">
         <v>804.827</v>
@@ -5039,21 +5531,24 @@
         <v>124.173</v>
       </c>
       <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
         <v>929</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" t="s">
         <v>31</v>
       </c>
-      <c r="C77" t="s">
-        <v>30</v>
-      </c>
       <c r="D77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E77">
         <v>61789.16</v>
@@ -5062,21 +5557,24 @@
         <v>129037.84</v>
       </c>
       <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
         <v>190827</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" t="s">
         <v>31</v>
       </c>
-      <c r="C78" t="s">
-        <v>30</v>
-      </c>
       <c r="D78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E78">
         <v>67688.99000000001</v>
@@ -5085,21 +5583,24 @@
         <v>129046.01</v>
       </c>
       <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
         <v>196735</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" t="s">
         <v>31</v>
       </c>
-      <c r="C79" t="s">
-        <v>30</v>
-      </c>
       <c r="D79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E79">
         <v>61538.83</v>
@@ -5108,21 +5609,24 @@
         <v>129056.17</v>
       </c>
       <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
         <v>190595</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E80">
         <v>68344.94500000001</v>
@@ -5131,21 +5635,24 @@
         <v>41804.055</v>
       </c>
       <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
         <v>110149</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E81">
         <v>49766.62</v>
@@ -5154,21 +5661,24 @@
         <v>44531.38</v>
       </c>
       <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
         <v>94298</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E82">
         <v>49512.535</v>
@@ -5177,21 +5687,24 @@
         <v>44538.465</v>
       </c>
       <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
         <v>94051</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E83">
         <v>80317</v>
@@ -5200,21 +5713,24 @@
         <v>137740</v>
       </c>
       <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
         <v>218057</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E84">
         <v>646.979</v>
@@ -5223,21 +5739,24 @@
         <v>119.021</v>
       </c>
       <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
         <v>766</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E85">
         <v>702.6130000000001</v>
@@ -5246,21 +5765,24 @@
         <v>112.387</v>
       </c>
       <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
         <v>815</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E86">
         <v>496.038</v>
@@ -5269,21 +5791,24 @@
         <v>106.962</v>
       </c>
       <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
         <v>603</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E87">
         <v>659.929</v>
@@ -5292,21 +5817,24 @@
         <v>106.071</v>
       </c>
       <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
         <v>766</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E88">
         <v>515.023</v>
@@ -5315,21 +5843,24 @@
         <v>110.977</v>
       </c>
       <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
         <v>626</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E89">
         <v>511.968</v>
@@ -5338,44 +5869,50 @@
         <v>116.032</v>
       </c>
       <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
         <v>628</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" t="s">
         <v>31</v>
       </c>
-      <c r="C90" t="s">
-        <v>30</v>
-      </c>
       <c r="D90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E90">
         <v>242058.935</v>
       </c>
       <c r="F90">
-        <v>162605.065</v>
+        <v>129630.44</v>
       </c>
       <c r="G90">
+        <v>32974.625</v>
+      </c>
+      <c r="H90">
         <v>404664</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E91">
         <v>808.614</v>
@@ -5384,21 +5921,24 @@
         <v>121.386</v>
       </c>
       <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
         <v>930</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" t="s">
         <v>31</v>
       </c>
-      <c r="C92" t="s">
-        <v>30</v>
-      </c>
       <c r="D92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E92">
         <v>61805.21000000001</v>
@@ -5407,21 +5947,24 @@
         <v>129060.79</v>
       </c>
       <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
         <v>190866</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" t="s">
         <v>31</v>
       </c>
-      <c r="C93" t="s">
-        <v>30</v>
-      </c>
       <c r="D93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E93">
         <v>68346.67999999999</v>
@@ -5430,21 +5973,24 @@
         <v>129068.32</v>
       </c>
       <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
         <v>197415</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" t="s">
         <v>31</v>
       </c>
-      <c r="C94" t="s">
-        <v>30</v>
-      </c>
       <c r="D94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E94">
         <v>62387.52</v>
@@ -5453,21 +5999,24 @@
         <v>129099.48</v>
       </c>
       <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
         <v>191487</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E95">
         <v>65560.08</v>
@@ -5476,21 +6025,24 @@
         <v>41764.92</v>
       </c>
       <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
         <v>107325</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E96">
         <v>49257.008</v>
@@ -5499,21 +6051,24 @@
         <v>44531.992</v>
       </c>
       <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
         <v>93789</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E97">
         <v>49382.594</v>
@@ -5522,21 +6077,24 @@
         <v>44541.406</v>
       </c>
       <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
         <v>93924</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D98" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E98">
         <v>80056.01999999999</v>
@@ -5545,21 +6103,24 @@
         <v>137732.98</v>
       </c>
       <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
         <v>217789</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E99">
         <v>513.0599999999999</v>
@@ -5568,21 +6129,24 @@
         <v>106.94</v>
       </c>
       <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
         <v>620</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E100">
         <v>723.7190000000001</v>
@@ -5591,21 +6155,24 @@
         <v>111.281</v>
       </c>
       <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
         <v>835</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E101">
         <v>502.309</v>
@@ -5614,21 +6181,24 @@
         <v>108.691</v>
       </c>
       <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
         <v>611</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E102">
         <v>624.52</v>
@@ -5637,21 +6207,24 @@
         <v>112.48</v>
       </c>
       <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
         <v>737</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E103">
         <v>526.742</v>
@@ -5660,21 +6233,24 @@
         <v>111.258</v>
       </c>
       <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
         <v>638</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E104">
         <v>557.3199999999999</v>
@@ -5683,44 +6259,50 @@
         <v>113.68</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>671</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
+        <v>32</v>
+      </c>
+      <c r="C105" t="s">
         <v>31</v>
       </c>
-      <c r="C105" t="s">
-        <v>30</v>
-      </c>
       <c r="D105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E105">
         <v>243433.9</v>
       </c>
       <c r="F105">
-        <v>162536.1</v>
+        <v>129637.12</v>
       </c>
       <c r="G105">
+        <v>32898.98</v>
+      </c>
+      <c r="H105">
         <v>405970</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E106">
         <v>791.425</v>
@@ -5729,21 +6311,24 @@
         <v>126.575</v>
       </c>
       <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
         <v>918</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107" t="s">
         <v>31</v>
       </c>
-      <c r="C107" t="s">
-        <v>30</v>
-      </c>
       <c r="D107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E107">
         <v>62088.516</v>
@@ -5752,21 +6337,24 @@
         <v>129109.484</v>
       </c>
       <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
         <v>191198</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
+        <v>32</v>
+      </c>
+      <c r="C108" t="s">
         <v>31</v>
       </c>
-      <c r="C108" t="s">
-        <v>30</v>
-      </c>
       <c r="D108" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E108">
         <v>67347.766</v>
@@ -5775,21 +6363,24 @@
         <v>129057.234</v>
       </c>
       <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
         <v>196405</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
+        <v>32</v>
+      </c>
+      <c r="C109" t="s">
         <v>31</v>
       </c>
-      <c r="C109" t="s">
-        <v>30</v>
-      </c>
       <c r="D109" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E109">
         <v>62035.03</v>
@@ -5798,21 +6389,24 @@
         <v>129049.97</v>
       </c>
       <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
         <v>191085</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E110">
         <v>66175.08</v>
@@ -5821,21 +6415,24 @@
         <v>41731.92</v>
       </c>
       <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
         <v>107907</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E111">
         <v>49666.258</v>
@@ -5844,21 +6441,24 @@
         <v>44527.742</v>
       </c>
       <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
         <v>94194</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E112">
         <v>49427.246</v>
@@ -5867,21 +6467,24 @@
         <v>44587.754</v>
       </c>
       <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
         <v>94015</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D113" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E113">
         <v>80426.73000000001</v>
@@ -5890,21 +6493,24 @@
         <v>137697.27</v>
       </c>
       <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
         <v>218124</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D114" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E114">
         <v>666.513</v>
@@ -5913,21 +6519,24 @@
         <v>114.487</v>
       </c>
       <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
         <v>781</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E115">
         <v>699.228</v>
@@ -5936,21 +6545,24 @@
         <v>107.772</v>
       </c>
       <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
         <v>807</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D116" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E116">
         <v>555.723</v>
@@ -5959,21 +6571,24 @@
         <v>105.277</v>
       </c>
       <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
         <v>661</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E117">
         <v>663.7809999999999</v>
@@ -5982,21 +6597,24 @@
         <v>114.219</v>
       </c>
       <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
         <v>778</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D118" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E118">
         <v>585.201</v>
@@ -6005,21 +6623,24 @@
         <v>110.799</v>
       </c>
       <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
         <v>696</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D119" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E119">
         <v>494.931</v>
@@ -6028,44 +6649,50 @@
         <v>121.069</v>
       </c>
       <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
         <v>616</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" t="s">
         <v>33</v>
       </c>
-      <c r="C120" t="s">
-        <v>32</v>
-      </c>
       <c r="D120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E120">
         <v>482789.539</v>
       </c>
       <c r="F120">
-        <v>332205.461</v>
+        <v>266530.875</v>
       </c>
       <c r="G120">
+        <v>65674.586</v>
+      </c>
+      <c r="H120">
         <v>814995</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E121">
         <v>740.876</v>
@@ -6074,21 +6701,24 @@
         <v>116.124</v>
       </c>
       <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
         <v>857</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
+        <v>34</v>
+      </c>
+      <c r="C122" t="s">
         <v>33</v>
       </c>
-      <c r="C122" t="s">
-        <v>32</v>
-      </c>
       <c r="D122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E122">
         <v>123478.75</v>
@@ -6097,21 +6727,24 @@
         <v>266577.25</v>
       </c>
       <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
         <v>390056</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123" t="s">
         <v>33</v>
       </c>
-      <c r="C123" t="s">
-        <v>32</v>
-      </c>
       <c r="D123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E123">
         <v>129297.72</v>
@@ -6120,21 +6753,24 @@
         <v>266530.28</v>
       </c>
       <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
         <v>395828</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124" t="s">
         <v>33</v>
       </c>
-      <c r="C124" t="s">
-        <v>32</v>
-      </c>
       <c r="D124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E124">
         <v>123402.94</v>
@@ -6143,21 +6779,24 @@
         <v>266569.06</v>
       </c>
       <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
         <v>389972</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D125" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E125">
         <v>614.39</v>
@@ -6166,21 +6805,24 @@
         <v>112.61</v>
       </c>
       <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
         <v>727</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E126">
         <v>672.905</v>
@@ -6189,21 +6831,24 @@
         <v>114.095</v>
       </c>
       <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
         <v>787</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D127" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E127">
         <v>522.045</v>
@@ -6212,21 +6857,24 @@
         <v>113.955</v>
       </c>
       <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
         <v>636</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E128">
         <v>665.713</v>
@@ -6235,21 +6883,24 @@
         <v>109.287</v>
       </c>
       <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
         <v>775</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D129" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E129">
         <v>513.862</v>
@@ -6258,21 +6909,24 @@
         <v>115.138</v>
       </c>
       <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
         <v>629</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D130" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E130">
         <v>510.018</v>
@@ -6281,44 +6935,50 @@
         <v>112.982</v>
       </c>
       <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
         <v>623</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
+        <v>36</v>
+      </c>
+      <c r="C131" t="s">
         <v>35</v>
       </c>
-      <c r="C131" t="s">
-        <v>34</v>
-      </c>
       <c r="D131" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E131">
         <v>196441.117</v>
       </c>
       <c r="F131">
-        <v>70890.883</v>
+        <v>44534.406</v>
       </c>
       <c r="G131">
+        <v>26356.477</v>
+      </c>
+      <c r="H131">
         <v>267332</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E132">
         <v>798.854</v>
@@ -6327,21 +6987,24 @@
         <v>117.146</v>
       </c>
       <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
         <v>916</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133" t="s">
         <v>35</v>
       </c>
-      <c r="C133" t="s">
-        <v>34</v>
-      </c>
       <c r="D133" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E133">
         <v>49254.55</v>
@@ -6350,21 +7013,24 @@
         <v>44570.45</v>
       </c>
       <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
         <v>93825</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134" t="s">
         <v>35</v>
       </c>
-      <c r="C134" t="s">
-        <v>34</v>
-      </c>
       <c r="D134" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E134">
         <v>55414.87</v>
@@ -6373,21 +7039,24 @@
         <v>44522.13</v>
       </c>
       <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
         <v>99937</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135" t="s">
         <v>35</v>
       </c>
-      <c r="C135" t="s">
-        <v>34</v>
-      </c>
       <c r="D135" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E135">
         <v>49753.195</v>
@@ -6396,21 +7065,24 @@
         <v>44527.805</v>
       </c>
       <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
         <v>94281</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D136" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E136">
         <v>9884.358</v>
@@ -6419,21 +7091,24 @@
         <v>138.642</v>
       </c>
       <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
         <v>10023</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D137" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E137">
         <v>542.548</v>
@@ -6442,21 +7117,24 @@
         <v>107.452</v>
       </c>
       <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
         <v>650</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E138">
         <v>706.779</v>
@@ -6465,21 +7143,24 @@
         <v>104.221</v>
       </c>
       <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
         <v>811</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D139" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E139">
         <v>558.9159999999999</v>
@@ -6488,21 +7169,24 @@
         <v>106.084</v>
       </c>
       <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
         <v>665</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E140">
         <v>684.159</v>
@@ -6511,21 +7195,24 @@
         <v>133.841</v>
       </c>
       <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
         <v>818</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D141" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E141">
         <v>519.601</v>
@@ -6534,21 +7221,24 @@
         <v>106.399</v>
       </c>
       <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
         <v>626</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D142" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E142">
         <v>581.439</v>
@@ -6557,21 +7247,24 @@
         <v>103.561</v>
       </c>
       <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
         <v>685</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D143" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E143">
         <v>546.727</v>
@@ -6580,21 +7273,24 @@
         <v>136.273</v>
       </c>
       <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
         <v>683</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E144">
         <v>677.922</v>
@@ -6603,21 +7299,24 @@
         <v>109.078</v>
       </c>
       <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
         <v>787</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D145" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E145">
         <v>555.396</v>
@@ -6626,21 +7325,24 @@
         <v>136.604</v>
       </c>
       <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
         <v>692</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D146" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E146">
         <v>574.682</v>
@@ -6649,21 +7351,24 @@
         <v>150.318</v>
       </c>
       <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
         <v>725</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D147" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E147">
         <v>588.1949999999999</v>
@@ -6672,21 +7377,24 @@
         <v>139.805</v>
       </c>
       <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
         <v>728</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C148" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D148" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E148">
         <v>572.792</v>
@@ -6695,21 +7403,24 @@
         <v>125.208</v>
       </c>
       <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
         <v>698</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D149" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E149">
         <v>519.625</v>
@@ -6718,21 +7429,24 @@
         <v>104.375</v>
       </c>
       <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
         <v>624</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E150">
         <v>705.624</v>
@@ -6741,21 +7455,24 @@
         <v>103.376</v>
       </c>
       <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
         <v>809</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D151" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E151">
         <v>497.498</v>
@@ -6764,21 +7481,24 @@
         <v>105.502</v>
       </c>
       <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
         <v>603</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E152">
         <v>722.801</v>
@@ -6787,21 +7507,24 @@
         <v>111.199</v>
       </c>
       <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
         <v>834</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C153" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D153" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E153">
         <v>559.576</v>
@@ -6810,21 +7533,24 @@
         <v>104.424</v>
       </c>
       <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
         <v>664</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D154" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E154">
         <v>462.537</v>
@@ -6833,21 +7559,24 @@
         <v>104.463</v>
       </c>
       <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
         <v>567</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D155" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E155">
         <v>569.822</v>
@@ -6856,21 +7585,24 @@
         <v>135.178</v>
       </c>
       <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
         <v>705</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E156">
         <v>736.05</v>
@@ -6879,21 +7611,24 @@
         <v>100.95</v>
       </c>
       <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
         <v>837</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C157" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D157" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E157">
         <v>552.309</v>
@@ -6902,21 +7637,24 @@
         <v>129.691</v>
       </c>
       <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
         <v>682</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C158" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D158" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E158">
         <v>514.2719999999999</v>
@@ -6925,21 +7663,24 @@
         <v>134.728</v>
       </c>
       <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
         <v>649</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C159" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D159" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E159">
         <v>563.504</v>
@@ -6948,21 +7689,24 @@
         <v>148.496</v>
       </c>
       <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
         <v>712</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C160" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D160" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E160">
         <v>568.75</v>
@@ -6971,6 +7715,9 @@
         <v>146.25</v>
       </c>
       <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
         <v>715</v>
       </c>
     </row>
@@ -6981,13 +7728,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7006,42 +7753,48 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>20808.387</v>
       </c>
       <c r="F2">
-        <v>857.6129999999999</v>
+        <v>333.952</v>
       </c>
       <c r="G2">
+        <v>523.6609999999999</v>
+      </c>
+      <c r="H2">
         <v>21666</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>1410.384</v>
@@ -7050,21 +7803,24 @@
         <v>331.616</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>1742</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E4">
         <v>17200.538</v>
@@ -7073,21 +7829,24 @@
         <v>1028.462</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>18229</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5">
         <v>15042.838</v>
@@ -7096,21 +7855,24 @@
         <v>1035.162</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>16078</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E6">
         <v>15005.124</v>
@@ -7119,6 +7881,9 @@
         <v>980.876</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>15986</v>
       </c>
     </row>
@@ -7129,13 +7894,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7154,19 +7919,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E2">
         <v>16258.55</v>
@@ -7175,21 +7943,24 @@
         <v>922.45</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>17181</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3">
         <v>591.981</v>
@@ -7198,21 +7969,24 @@
         <v>899.019</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>1491</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4">
         <v>11989.003</v>
@@ -7221,21 +7995,24 @@
         <v>5991.997</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>17981</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5">
         <v>12106.069</v>
@@ -7244,21 +8021,24 @@
         <v>5989.931</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>18096</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E6">
         <v>12134.704</v>
@@ -7267,6 +8047,9 @@
         <v>5998.296</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>18133</v>
       </c>
     </row>
@@ -7277,13 +8060,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7302,19 +8085,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <v>55926.66</v>
@@ -7323,21 +8109,24 @@
         <v>22383.34</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>78310</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <v>49937.39</v>
@@ -7346,44 +8135,50 @@
         <v>22382.61</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>72320</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>28851.27</v>
       </c>
       <c r="F4">
-        <v>60960.73</v>
+        <v>60379.316</v>
       </c>
       <c r="G4">
+        <v>581.414</v>
+      </c>
+      <c r="H4">
         <v>89812</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E5">
         <v>49895.95699999999</v>
@@ -7392,21 +8187,24 @@
         <v>22376.043</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>72272</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6">
         <v>55654.514</v>
@@ -7415,21 +8213,24 @@
         <v>22367.486</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>78022</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E7">
         <v>24431.473</v>
@@ -7438,21 +8239,24 @@
         <v>60334.527</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>84766</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8">
         <v>49712.79300000001</v>
@@ -7461,21 +8265,24 @@
         <v>22367.207</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>72080</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9">
         <v>49335.79300000001</v>
@@ -7484,21 +8291,24 @@
         <v>22379.207</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>71715</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>70821.25</v>
@@ -7507,21 +8317,24 @@
         <v>112588.75</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>183410</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E11">
         <v>49111.496</v>
@@ -7530,21 +8343,24 @@
         <v>22369.504</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>71481</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E12">
         <v>49175.016</v>
@@ -7553,21 +8369,24 @@
         <v>22378.984</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>71554</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E13">
         <v>71056.66</v>
@@ -7576,21 +8395,24 @@
         <v>112643.34</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>183700</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E14">
         <v>49691.035</v>
@@ -7599,21 +8421,24 @@
         <v>22376.965</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>72068</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E15">
         <v>49664.428</v>
@@ -7622,21 +8447,24 @@
         <v>22497.572</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>72162</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E16">
         <v>71003.89</v>
@@ -7645,6 +8473,9 @@
         <v>112559.11</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>183563</v>
       </c>
     </row>
@@ -7655,13 +8486,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7680,119 +8511,137 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E2">
         <v>173621.736</v>
       </c>
       <c r="F2">
-        <v>683350.264</v>
+        <v>657006.2</v>
       </c>
       <c r="G2">
+        <v>26344.064</v>
+      </c>
+      <c r="H2">
         <v>856972</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E3">
         <v>147419.84</v>
       </c>
       <c r="F3">
-        <v>683491.16</v>
+        <v>657029.1</v>
       </c>
       <c r="G3">
+        <v>26462.06</v>
+      </c>
+      <c r="H3">
         <v>830911</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E4">
         <v>147554.072</v>
       </c>
       <c r="F4">
-        <v>683515.928</v>
+        <v>657151.1</v>
       </c>
       <c r="G4">
+        <v>26364.828</v>
+      </c>
+      <c r="H4">
         <v>831070</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>148024.0800000001</v>
+        <v>148024.08</v>
       </c>
       <c r="F5">
-        <v>683684.9199999999</v>
+        <v>657334.1</v>
       </c>
       <c r="G5">
+        <v>26350.82</v>
+      </c>
+      <c r="H5">
         <v>831709</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E6">
         <v>148338.5889999999</v>
       </c>
       <c r="F6">
-        <v>683719.4110000001</v>
+        <v>657371.3</v>
       </c>
       <c r="G6">
+        <v>26348.111</v>
+      </c>
+      <c r="H6">
         <v>832058</v>
       </c>
     </row>
@@ -7803,13 +8652,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7828,119 +8677,137 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2">
         <v>34983.4965</v>
       </c>
       <c r="F2">
-        <v>35818.5035</v>
+        <v>34366.1875</v>
       </c>
       <c r="G2">
+        <v>1452.316</v>
+      </c>
+      <c r="H2">
         <v>70802</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E3">
         <v>30269.007</v>
       </c>
       <c r="F3">
-        <v>35298.993</v>
+        <v>34377.76</v>
       </c>
       <c r="G3">
+        <v>921.2329999999999</v>
+      </c>
+      <c r="H3">
         <v>65568</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E4">
-        <v>75861.796</v>
+        <v>75861.79600000002</v>
       </c>
       <c r="F4">
-        <v>138184.204</v>
+        <v>137253.27</v>
       </c>
       <c r="G4">
+        <v>930.934</v>
+      </c>
+      <c r="H4">
         <v>214046</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E5">
-        <v>85011.606</v>
+        <v>85011.60599999999</v>
       </c>
       <c r="F5">
-        <v>138216.394</v>
+        <v>137292.45</v>
       </c>
       <c r="G5">
+        <v>923.944</v>
+      </c>
+      <c r="H5">
         <v>223228</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E6">
         <v>84472.67800000001</v>
       </c>
       <c r="F6">
-        <v>138191.322</v>
+        <v>137268.55</v>
       </c>
       <c r="G6">
+        <v>922.772</v>
+      </c>
+      <c r="H6">
         <v>222664</v>
       </c>
     </row>
@@ -7951,13 +8818,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7976,19 +8843,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>30081.922</v>
@@ -7997,21 +8867,24 @@
         <v>25092.078</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>55174</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>24725.672</v>
@@ -8020,21 +8893,24 @@
         <v>25092.328</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>49818</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E4">
         <v>132015.94</v>
@@ -8043,21 +8919,24 @@
         <v>181764.06</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>313780</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>168946.11</v>
@@ -8066,21 +8945,24 @@
         <v>181854.89</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>350801</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E6">
         <v>168269.86</v>
@@ -8089,21 +8971,24 @@
         <v>181765.14</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>350035</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E7">
         <v>45553.864</v>
@@ -8112,21 +8997,24 @@
         <v>9213.136</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>54767</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
         <v>97</v>
       </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E8">
         <v>11045.856</v>
@@ -8135,21 +9023,24 @@
         <v>11862.144</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>22908</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
         <v>98</v>
       </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E9">
         <v>16897.662</v>
@@ -8158,6 +9049,9 @@
         <v>16764.338</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>33662</v>
       </c>
     </row>

--- a/doc/FPGA_Runs/fpgarun05_finalrun01/runrslt/Batch25/anyimplementaion_layerbased_host_device.xlsx
+++ b/doc/FPGA_Runs/fpgarun05_finalrun01/runrslt/Batch25/anyimplementaion_layerbased_host_device.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="158">
   <si>
     <t>Shape1</t>
   </si>
@@ -2880,13 +2880,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>141</v>
       </c>
@@ -2900,10 +2900,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2914,16 +2917,19 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>51492.192</v>
+        <v>50877.61199999999</v>
       </c>
       <c r="E2">
         <v>39806.808</v>
       </c>
       <c r="F2">
+        <v>614.58</v>
+      </c>
+      <c r="G2">
         <v>91299</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2934,16 +2940,19 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>321606.1079999999</v>
+        <v>320354.0989999999</v>
       </c>
       <c r="E3">
         <v>2155495.892</v>
       </c>
       <c r="F3">
+        <v>1252.009</v>
+      </c>
+      <c r="G3">
         <v>2477102</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2954,16 +2963,19 @@
         <v>159</v>
       </c>
       <c r="D4">
-        <v>5679589.928000003</v>
+        <v>5363641.349</v>
       </c>
       <c r="E4">
         <v>5713227.071999997</v>
       </c>
       <c r="F4">
+        <v>315948.579</v>
+      </c>
+      <c r="G4">
         <v>11392817</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2974,16 +2986,19 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>69990.932</v>
+        <v>69467.27099999999</v>
       </c>
       <c r="E5">
         <v>3710.068</v>
       </c>
       <c r="F5">
+        <v>523.6609999999999</v>
+      </c>
+      <c r="G5">
         <v>73701</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3000,10 +3015,13 @@
         <v>19801.693</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>72882</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3014,16 +3032,19 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>774851.039</v>
+        <v>774269.625</v>
       </c>
       <c r="E7">
         <v>682383.961</v>
       </c>
       <c r="F7">
+        <v>581.414</v>
+      </c>
+      <c r="G7">
         <v>1457235</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3034,16 +3055,19 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>896828.2000000001</v>
+        <v>764958.317</v>
       </c>
       <c r="E8">
         <v>3285891.8</v>
       </c>
       <c r="F8">
+        <v>131869.883</v>
+      </c>
+      <c r="G8">
         <v>4182720</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3054,16 +3078,19 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>315749.7825</v>
+        <v>310598.5835</v>
       </c>
       <c r="E9">
         <v>480558.2175</v>
       </c>
       <c r="F9">
+        <v>5151.199</v>
+      </c>
+      <c r="G9">
         <v>796308</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3080,10 +3107,13 @@
         <v>633408.1140000001</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>1230945</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3094,16 +3124,19 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>2928842.015000001</v>
+        <v>2670437.47</v>
       </c>
       <c r="E11">
         <v>4649460.984999999</v>
       </c>
       <c r="F11">
+        <v>258404.545</v>
+      </c>
+      <c r="G11">
         <v>7578303</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3114,16 +3147,19 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>2173423.427</v>
+        <v>1857689.748</v>
       </c>
       <c r="E12">
         <v>1692192.573</v>
       </c>
       <c r="F12">
+        <v>315733.679</v>
+      </c>
+      <c r="G12">
         <v>3865616</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3134,16 +3170,19 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>4208331.450000001</v>
+        <v>3576599.004</v>
       </c>
       <c r="E13">
         <v>3389818.55</v>
       </c>
       <c r="F13">
+        <v>631732.446</v>
+      </c>
+      <c r="G13">
         <v>7598150</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3160,10 +3199,13 @@
         <v>1254.799</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>163044</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3180,10 +3222,13 @@
         <v>168786.563</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>766056</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3200,6 +3245,9 @@
         <v>1550348.006</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>1576321</v>
       </c>
     </row>
